--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Watershed Ecology</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>‪https://scholar.google.ca/citations?user=ghYLsSAAAAAJ&amp;hl=en&amp;oi=ao‬</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -423,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,118 +785,122 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2009</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2005</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -909,48 +922,53 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -116,9 +116,6 @@
     <t>Research Scientist, Watershed Ecology Team Lead</t>
   </si>
   <si>
-    <t>I am interested in how forests support freshwater ecosystem services. My research combines microbial and molecular approaches to undertand how forest productivity and distubances affect ecosystem functions in headwater streams and lakes.</t>
-  </si>
-  <si>
     <t>Northern Forests</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>‪https://scholar.google.ca/citations?user=ghYLsSAAAAAJ&amp;hl=en&amp;oi=ao‬</t>
+  </si>
+  <si>
+    <t>I am interested in how forests support freshwater ecosystem services. My research combines microbial and molecular approaches to undertand how forest productivity and disturbances affect ecosystem functions in headwater streams and lakes.</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,7 +717,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,10 +785,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -807,10 +807,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -819,11 +819,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -881,10 +881,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -929,32 +929,32 @@
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -101,15 +101,6 @@
     <t>https://github.com/ErikEmilson</t>
   </si>
   <si>
-    <t>PhD Boreal Ecology</t>
-  </si>
-  <si>
-    <t>MSc Biology</t>
-  </si>
-  <si>
-    <t>BSc Marine and Freshwater Biology</t>
-  </si>
-  <si>
     <t>Laurentian University</t>
   </si>
   <si>
@@ -147,6 +138,15 @@
   </si>
   <si>
     <t>I am interested in how forests support freshwater ecosystem services. My research combines microbial and molecular approaches to undertand how forest productivity and disturbances affect ecosystem functions in headwater streams and lakes.</t>
+  </si>
+  <si>
+    <t>Ph.D. Boreal Ecology</t>
+  </si>
+  <si>
+    <t>M.Sc. Biology</t>
+  </si>
+  <si>
+    <t>B.Sc. Marine and Freshwater Biology</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,10 +785,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -807,10 +807,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -838,10 +838,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>2014</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -929,32 +929,32 @@
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -147,13 +147,19 @@
   </si>
   <si>
     <t>B.Sc. Marine and Freshwater Biology</t>
+  </si>
+  <si>
+    <t>OrcID</t>
+  </si>
+  <si>
+    <t>0000-0002-1516-9728</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +175,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -433,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -714,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,120 +805,124 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>2005</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -926,46 +944,50 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B25" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Laurentian University</t>
   </si>
   <si>
-    <t>Research Scientist, Watershed Ecology Team Lead</t>
-  </si>
-  <si>
     <t>Northern Forests</t>
   </si>
   <si>
@@ -153,6 +150,15 @@
   </si>
   <si>
     <t>0000-0002-1516-9728</t>
+  </si>
+  <si>
+    <t>Research Scientist, Watershed Ecology Team Lead, Associate Editor CJFR</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Forestry Research</t>
+  </si>
+  <si>
+    <t>https://cdnsciencepub.com/journal/cjfr/about/editorial-board</t>
   </si>
 </sst>
 </file>
@@ -437,6 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -799,18 +805,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -829,10 +835,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -841,11 +847,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -860,7 +866,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -871,7 +877,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -882,7 +888,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -903,10 +909,10 @@
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -925,8 +931,12 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -951,32 +961,32 @@
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Erik_Emilson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Erik_Emilson\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,9 +95,6 @@
     <t>https://twitter.com/wet_erik?lang=en</t>
   </si>
   <si>
-    <t>erik.emilson@canada.ca</t>
-  </si>
-  <si>
     <t>https://github.com/ErikEmilson</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>https://cdnsciencepub.com/journal/cjfr/about/editorial-board</t>
+  </si>
+  <si>
+    <t>erik.emilson@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,18 +805,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -835,10 +835,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,10 +866,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>2014</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>2009</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,32 +961,32 @@
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Erik_Emilson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32978F1D-8E7B-4A4D-85D2-986DDFF08606}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +120,6 @@
     <t>Groups</t>
   </si>
   <si>
-    <t>Leadership</t>
-  </si>
-  <si>
     <t>Watershed Ecology</t>
   </si>
   <si>
@@ -159,12 +157,15 @@
   </si>
   <si>
     <t>erik.emilson@NRCan-RNCan.gc.ca</t>
+  </si>
+  <si>
+    <t>Watershed Ecology Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,9 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,31 +734,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -765,15 +766,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -781,15 +782,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -797,63 +798,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -864,9 +865,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -875,9 +876,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -886,9 +887,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -897,24 +898,24 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="20"/>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -922,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -930,61 +931,61 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -995,10 +996,10 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32978F1D-8E7B-4A4D-85D2-986DDFF08606}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EACA9A1-0A9D-4DBC-949F-C33DF00600D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1845" windowWidth="28770" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Research Scientist, Watershed Ecology Team Lead, Associate Editor CJFR</t>
   </si>
   <si>
-    <t>Canadian Journal of Forestry Research</t>
-  </si>
-  <si>
     <t>https://cdnsciencepub.com/journal/cjfr/about/editorial-board</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Watershed Ecology Team</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Forest Research</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,10 +933,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EACA9A1-0A9D-4DBC-949F-C33DF00600D8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DADD646-EB36-4062-B23A-C750FFFB9CDD}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1845" windowWidth="28770" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10110" yWindow="-14505" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Canadian Journal of Forest Research</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>https://profils-profiles.science.gc.ca/en/profile/erik-js-emilson</t>
   </si>
 </sst>
 </file>
@@ -735,30 +741,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -766,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -774,7 +780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -782,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -790,7 +796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -798,210 +804,227 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DADD646-EB36-4062-B23A-C750FFFB9CDD}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AAD217-F616-4AFE-8F27-0BD36900E102}"/>
   <bookViews>
-    <workbookView xWindow="-10110" yWindow="-14505" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>https://www.nrcan.gc.ca/science-data/research-centres-labs/forestry-research-centres/great-lakes-forestry-centre/13459</t>
   </si>
   <si>
-    <t>Erik Emilson</t>
-  </si>
-  <si>
     <t>https://twitter.com/wet_erik?lang=en</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>https://profils-profiles.science.gc.ca/en/profile/erik-js-emilson</t>
+  </si>
+  <si>
+    <t>Erik J.S. Emilson</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,15 +801,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -820,18 +820,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -850,10 +850,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -881,10 +881,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>2014</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>2009</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,32 +976,32 @@
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AAD217-F616-4AFE-8F27-0BD36900E102}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C510A9C-1921-4112-A89B-C0AB238DF48D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12765" yWindow="-15045" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>e-mail</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>https://www.nrcan.gc.ca/science-data/research-centres-labs/forestry-research-centres/great-lakes-forestry-centre/13459</t>
   </si>
   <si>
-    <t>https://twitter.com/wet_erik?lang=en</t>
-  </si>
-  <si>
     <t>https://github.com/ErikEmilson</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>Erik J.S. Emilson</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wet_erik</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -460,6 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -744,7 +745,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,12 +757,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,122 +770,122 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>2014</v>
@@ -892,10 +893,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>2009</v>
@@ -903,10 +904,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>2005</v>
@@ -925,32 +926,32 @@
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,32 +977,32 @@
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1011,10 @@
     <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6AC30F70-7D1B-4E35-B356-AB3B6CA3E40B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C510A9C-1921-4112-A89B-C0AB238DF48D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D254C3E0-3154-44AD-B1C4-FA5326BF7B9C}"/>
   <bookViews>
-    <workbookView xWindow="-12765" yWindow="-15045" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>https://www.instagram.com/wet_erik</t>
+    <t>https://www.instagram.com/waterik_</t>
   </si>
 </sst>
 </file>
@@ -451,6 +451,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,7 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -745,27 +745,27 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -781,15 +781,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -805,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -813,13 +813,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -827,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -835,7 +835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -857,19 +857,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -913,24 +913,24 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -946,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -954,53 +954,53 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D254C3E0-3154-44AD-B1C4-FA5326BF7B9C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6CDBD8-0493-4910-A5BA-5742B8039C62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>https://www.instagram.com/waterik_</t>
+    <t>https://www.instagram.com/waterik_/</t>
   </si>
 </sst>
 </file>
@@ -744,28 +744,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -781,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
@@ -789,7 +789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -805,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -813,13 +813,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -827,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -835,7 +835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -857,19 +857,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -913,24 +913,24 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -946,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -954,53 +954,53 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>

--- a/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
+++ b/website_content_creation/authors/Erik_Emilson/Copy of Author_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erik_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6CDBD8-0493-4910-A5BA-5742B8039C62}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_05A86B7A46D0207986F5AE1F941890BB4BCACE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CBA31C-EEE5-4D3F-9ED6-0CE4967E4A17}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>https://www.instagram.com/waterik_/</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://x.com/waterik_</t>
   </si>
 </sst>
 </file>
@@ -742,9 +748,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -755,17 +761,17 @@
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -773,7 +779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -781,182 +787,186 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2009</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>2005</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -974,50 +984,55 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6AC30F70-7D1B-4E35-B356-AB3B6CA3E40B}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{6AC30F70-7D1B-4E35-B356-AB3B6CA3E40B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{4AF26F8F-0DF1-4B17-B476-F9A33FF5F08C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
   </headerFooter>
